--- a/config_2.9/fish3d_use_config.xlsx
+++ b/config_2.9/fish3d_use_config.xlsx
@@ -1328,8 +1328,8 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3087,12 +3087,26 @@
       <c r="C172" s="6"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
+      <c r="A173" s="7">
+        <v>172</v>
+      </c>
+      <c r="B173" s="7">
+        <v>62</v>
+      </c>
+      <c r="C173" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="A174" s="7">
+        <v>173</v>
+      </c>
+      <c r="B174" s="7">
+        <v>62</v>
+      </c>
+      <c r="C174" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>

--- a/config_2.9/fish3d_use_config.xlsx
+++ b/config_2.9/fish3d_use_config.xlsx
@@ -1329,7 +1329,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173:C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3093,9 +3093,6 @@
       <c r="B173" s="7">
         <v>62</v>
       </c>
-      <c r="C173" s="4">
-        <v>9</v>
-      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
@@ -3103,9 +3100,6 @@
       </c>
       <c r="B174" s="7">
         <v>62</v>
-      </c>
-      <c r="C174" s="4">
-        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_2.9/fish3d_use_config.xlsx
+++ b/config_2.9/fish3d_use_config.xlsx
@@ -1055,21 +1055,6 @@
         <row r="160">
           <cell r="B160">
             <v>18</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>62</v>
           </cell>
         </row>
       </sheetData>
@@ -1353,7 +1338,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
+      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2995,8 +2980,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3">
-        <f>[1]use_fish!$B161</f>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -3004,8 +2988,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3">
-        <f>[1]use_fish!$B162</f>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -3013,8 +2996,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3">
-        <f>[1]use_fish!$B163</f>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_2.9/fish3d_use_config.xlsx
+++ b/config_2.9/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +155,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +190,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -216,14 +210,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1338,7 +1329,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L160" sqref="L160"/>
+      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2805,11 +2796,11 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="7">
         <f>[1]use_fish!$B146</f>
         <v>13</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2817,11 +2808,11 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="7">
         <f>[1]use_fish!$B147</f>
         <v>14</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2829,11 +2820,11 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="7">
         <f>[1]use_fish!$B148</f>
         <v>15</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2841,11 +2832,11 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="7">
         <f>[1]use_fish!$B149</f>
         <v>16</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2853,11 +2844,11 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="7">
         <f>[1]use_fish!$B150</f>
         <v>17</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2865,11 +2856,11 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="7">
         <f>[1]use_fish!$B151</f>
         <v>18</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2877,41 +2868,41 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="7">
         <f>[1]use_fish!$B152</f>
         <v>61</v>
       </c>
-      <c r="C152" s="8"/>
+      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="7">
         <f>[1]use_fish!$B153</f>
         <v>61</v>
       </c>
-      <c r="C153" s="8"/>
+      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="7">
         <f>[1]use_fish!$B154</f>
         <v>61</v>
       </c>
-      <c r="C154" s="8"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="7">
         <f>[1]use_fish!$B155</f>
         <v>13</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2919,11 +2910,11 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="7">
         <f>[1]use_fish!$B156</f>
         <v>14</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2931,11 +2922,11 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="7">
         <f>[1]use_fish!$B157</f>
         <v>15</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2943,11 +2934,11 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="7">
         <f>[1]use_fish!$B158</f>
         <v>16</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2955,11 +2946,11 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="7">
         <f>[1]use_fish!$B159</f>
         <v>17</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2967,109 +2958,169 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="7">
         <f>[1]use_fish!$B160</f>
         <v>18</v>
       </c>
-      <c r="C160" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="7">
         <v>61</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="6"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="7">
         <v>61</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="6"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="7">
         <v>61</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
+      <c r="C163" s="6"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="7">
+        <v>163</v>
+      </c>
+      <c r="B164" s="8">
+        <v>13</v>
+      </c>
+      <c r="C164" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="7">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8">
+        <v>14</v>
+      </c>
+      <c r="C165" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="7">
+        <v>165</v>
+      </c>
+      <c r="B166" s="8">
+        <v>15</v>
+      </c>
+      <c r="C166" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="7">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8">
+        <v>16</v>
+      </c>
+      <c r="C167" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="7">
+        <v>167</v>
+      </c>
+      <c r="B168" s="8">
+        <v>17</v>
+      </c>
+      <c r="C168" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="7">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8">
+        <v>18</v>
+      </c>
+      <c r="C169" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="7">
+        <v>169</v>
+      </c>
+      <c r="B170" s="7">
+        <v>61</v>
+      </c>
+      <c r="C170" s="6"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="7">
+        <v>170</v>
+      </c>
+      <c r="B171" s="7">
+        <v>61</v>
+      </c>
+      <c r="C171" s="6"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="7">
+        <v>171</v>
+      </c>
+      <c r="B172" s="7">
+        <v>61</v>
+      </c>
+      <c r="C172" s="6"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_2.9/fish3d_use_config.xlsx
+++ b/config_2.9/fish3d_use_config.xlsx
@@ -196,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -221,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1066,96 +1069,6 @@
         </row>
         <row r="163">
           <cell r="B163">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
             <v>62</v>
           </cell>
         </row>
@@ -1439,8 +1352,8 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L148" sqref="L148"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3013,6 +2926,9 @@
         <f>[1]use_fish!$B155</f>
         <v>13</v>
       </c>
+      <c r="C155" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
@@ -3022,6 +2938,9 @@
         <f>[1]use_fish!$B156</f>
         <v>14</v>
       </c>
+      <c r="C156" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
@@ -3031,6 +2950,9 @@
         <f>[1]use_fish!$B157</f>
         <v>15</v>
       </c>
+      <c r="C157" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
@@ -3040,6 +2962,9 @@
         <f>[1]use_fish!$B158</f>
         <v>16</v>
       </c>
+      <c r="C158" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
@@ -3049,6 +2974,9 @@
         <f>[1]use_fish!$B159</f>
         <v>17</v>
       </c>
+      <c r="C159" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
@@ -3058,6 +2986,9 @@
         <f>[1]use_fish!$B160</f>
         <v>18</v>
       </c>
+      <c r="C160" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
@@ -3087,166 +3018,76 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="7">
-        <v>163</v>
-      </c>
-      <c r="B164" s="3">
-        <f>[1]use_fish!$B164</f>
-        <v>13</v>
-      </c>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="7">
-        <v>164</v>
-      </c>
-      <c r="B165" s="3">
-        <f>[1]use_fish!$B165</f>
-        <v>14</v>
-      </c>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="7">
-        <v>165</v>
-      </c>
-      <c r="B166" s="3">
-        <f>[1]use_fish!$B166</f>
-        <v>15</v>
-      </c>
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="7">
-        <v>166</v>
-      </c>
-      <c r="B167" s="3">
-        <f>[1]use_fish!$B167</f>
-        <v>16</v>
-      </c>
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="7">
-        <v>167</v>
-      </c>
-      <c r="B168" s="3">
-        <f>[1]use_fish!$B168</f>
-        <v>17</v>
-      </c>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
-        <v>168</v>
-      </c>
-      <c r="B169" s="3">
-        <f>[1]use_fish!$B169</f>
-        <v>18</v>
-      </c>
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
-        <v>169</v>
-      </c>
-      <c r="B170" s="3">
-        <f>[1]use_fish!$B170</f>
-        <v>62</v>
-      </c>
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
-        <v>170</v>
-      </c>
-      <c r="B171" s="3">
-        <f>[1]use_fish!$B171</f>
-        <v>62</v>
-      </c>
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
-        <v>171</v>
-      </c>
-      <c r="B172" s="3">
-        <f>[1]use_fish!$B172</f>
-        <v>62</v>
-      </c>
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="7">
-        <v>172</v>
-      </c>
-      <c r="B173" s="3">
-        <f>[1]use_fish!$B173</f>
-        <v>13</v>
-      </c>
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="7">
-        <v>173</v>
-      </c>
-      <c r="B174" s="3">
-        <f>[1]use_fish!$B174</f>
-        <v>14</v>
-      </c>
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="7">
-        <v>174</v>
-      </c>
-      <c r="B175" s="3">
-        <f>[1]use_fish!$B175</f>
-        <v>15</v>
-      </c>
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="7">
-        <v>175</v>
-      </c>
-      <c r="B176" s="3">
-        <f>[1]use_fish!$B176</f>
-        <v>16</v>
-      </c>
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="7">
-        <v>176</v>
-      </c>
-      <c r="B177" s="3">
-        <f>[1]use_fish!$B177</f>
-        <v>17</v>
-      </c>
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="7">
-        <v>177</v>
-      </c>
-      <c r="B178" s="3">
-        <f>[1]use_fish!$B178</f>
-        <v>18</v>
-      </c>
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="7">
-        <v>178</v>
-      </c>
-      <c r="B179" s="3">
-        <f>[1]use_fish!$B179</f>
-        <v>62</v>
-      </c>
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="7">
-        <v>179</v>
-      </c>
-      <c r="B180" s="3">
-        <f>[1]use_fish!$B180</f>
-        <v>62</v>
-      </c>
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="7">
-        <v>180</v>
-      </c>
-      <c r="B181" s="3">
-        <f>[1]use_fish!$B181</f>
-        <v>62</v>
-      </c>
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
